--- a/Libro1 PRUEBAS.xlsx
+++ b/Libro1 PRUEBAS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\GitHup\Xengonzalez\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\GitHup\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -420,7 +420,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -460,7 +460,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="2">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="C2" s="2">
         <v>283</v>
@@ -556,7 +556,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="2">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2">
         <v>12</v>
@@ -601,7 +601,7 @@
       </c>
       <c r="B7" s="3">
         <f>SUM(B2:B6)</f>
-        <v>812</v>
+        <v>765</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ref="C7:J7" si="0">SUM(C2:C6)</f>
